--- a/data/final_data_comparison.xlsx
+++ b/data/final_data_comparison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Mean</t>
   </si>
@@ -57,16 +57,10 @@
     <t>ISO 8655, 20-200 uL</t>
   </si>
   <si>
-    <t>ISO 8655, , 20-200 uL</t>
-  </si>
-  <si>
     <t>10 uL*</t>
   </si>
   <si>
-    <t>ISO 8655,  20-200 uL</t>
-  </si>
-  <si>
-    <t>ISO 8655,  10-100 uL</t>
+    <t>ISO 8655, 10-100 uL</t>
   </si>
 </sst>
 </file>
@@ -491,7 +485,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -591,7 +585,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -662,7 +656,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -732,7 +726,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -795,7 +789,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -817,7 +811,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
